--- a/image/endpoint.xlsx
+++ b/image/endpoint.xlsx
@@ -666,43 +666,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="59.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="59.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/endpoint.xlsx
+++ b/image/endpoint.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="162">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -395,10 +395,6 @@
   </si>
   <si>
     <t>Endpoint.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>A name that this endpoint can be identified by</t>
@@ -666,43 +662,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="59.63671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.38671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="59.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2097,13 +2093,13 @@
         <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2172,12 +2168,12 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2200,16 +2196,16 @@
         <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2259,7 +2255,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2282,7 +2278,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2305,13 +2301,13 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2362,7 +2358,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2385,7 +2381,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2408,13 +2404,13 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2465,7 +2461,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2483,12 +2479,12 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2511,16 +2507,16 @@
         <v>47</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2546,11 +2542,11 @@
         <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>38</v>
@@ -2568,7 +2564,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>46</v>
@@ -2591,7 +2587,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2617,13 +2613,13 @@
         <v>65</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2652,11 +2648,11 @@
         <v>110</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>38</v>
       </c>
@@ -2673,7 +2669,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2696,7 +2692,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2719,16 +2715,16 @@
         <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2778,7 +2774,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>46</v>
@@ -2801,7 +2797,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2824,16 +2820,16 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2883,7 +2879,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
